--- a/data/unchecked/manual_collect/china/tianjin/tianjinCaseStatistics_20200216.xlsx
+++ b/data/unchecked/manual_collect/china/tianjin/tianjinCaseStatistics_20200216.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ncp/tianjin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B014643-BB5D-A641-8247-206287E0D0AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0BC1B8-C039-8E4B-901C-FD62F00EB720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10789,8 +10789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
@@ -10989,6 +10989,9 @@
       <c r="O2" s="13">
         <v>11</v>
       </c>
+      <c r="P2" s="13">
+        <v>2</v>
+      </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="13" t="s">
@@ -11048,6 +11051,9 @@
       <c r="O3" s="13">
         <v>7</v>
       </c>
+      <c r="P3" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:40">
       <c r="A4" s="20">
@@ -11438,7 +11444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" s="20">
         <v>17</v>
       </c>
@@ -11469,6 +11475,9 @@
       </c>
       <c r="O17" s="13">
         <v>45</v>
+      </c>
+      <c r="P17" s="13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
